--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangeethmenachery/Documents/Coding/pdf-generator/Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE81EEBE-03DE-524E-A777-C75493169A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E2162-065F-F148-8AD7-1EB393D01535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17160" xr2:uid="{05ECEB4F-11CE-B74F-940F-C3FEE0008888}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>First Name</t>
   </si>
@@ -92,13 +105,19 @@
   </si>
   <si>
     <t>Cool</t>
+  </si>
+  <si>
+    <t>Parent Email</t>
+  </si>
+  <si>
+    <t>sangeethmenachery@gmail.com, shijo_menachery@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +250,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,8 +600,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15835A3D-886E-8047-ACA9-A24D1F8282C7}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,7 +989,7 @@
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +1020,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>

--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangeethmenachery/Documents/Coding/pdf-generator/Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E2162-065F-F148-8AD7-1EB393D01535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6314C-F782-3D42-8E7C-47AF8D7CD02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17160" xr2:uid="{05ECEB4F-11CE-B74F-940F-C3FEE0008888}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Parent Email</t>
   </si>
   <si>
-    <t>sangeethmenachery@gmail.com, shijo_menachery@hotmail.com</t>
+    <t>sangeethmenachery@gmail.com, s@sangeethmenachery@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Example/Example.xlsx
+++ b/Example/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangeethmenachery/Documents/Coding/pdf-generator/Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6314C-F782-3D42-8E7C-47AF8D7CD02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35FC25E-69CE-964C-9410-B334A2ED1B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17160" xr2:uid="{05ECEB4F-11CE-B74F-940F-C3FEE0008888}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>sangeethmenachery@gmail.com, s@sangeethmenachery@gmail.com</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Teacher1Name</t>
+  </si>
+  <si>
+    <t>Teacher2Name</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
 </sst>
 </file>
@@ -600,9 +612,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,287 +995,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15835A3D-886E-8047-ACA9-A24D1F8282C7}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>50</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
         <f>(C2)+D2+E2+F2+G2+H2</f>
         <v>91</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I8" si="0">(C3)+D3+E3+F3+G3+H3</f>
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>46</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>50</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>